--- a/uploadDonorDataToCloud/bloodDonorList.xlsx
+++ b/uploadDonorDataToCloud/bloodDonorList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropawar\Downloads\HO blood donor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyLearnings\HO-app\HO-BlooDonor\uploadDonorDataToCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>city</t>
   </si>
@@ -144,6 +144,93 @@
   </si>
   <si>
     <t>MP</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Seeta</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>Pathak</t>
+  </si>
+  <si>
+    <t>Dhyan</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Moo</t>
+  </si>
+  <si>
+    <t>Sivahare</t>
+  </si>
+  <si>
+    <t>Rathi</t>
+  </si>
+  <si>
+    <t>Sharna</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Kuvar</t>
+  </si>
+  <si>
+    <t>Pandit</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>katni</t>
+  </si>
+  <si>
+    <t>sihora</t>
+  </si>
+  <si>
+    <t>chhindwara</t>
+  </si>
+  <si>
+    <t>vijay nagar</t>
+  </si>
+  <si>
+    <t>Saori</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>15/12/2021</t>
+  </si>
+  <si>
+    <t>19/12/2021</t>
+  </si>
+  <si>
+    <t>15/1/2022</t>
   </si>
 </sst>
 </file>
@@ -179,8 +266,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,8 +620,8 @@
       <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
+      <c r="G2" s="1">
+        <v>44807</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -567,8 +655,8 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
+      <c r="G3" s="1">
+        <v>44564</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -577,7 +665,7 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="L3">
         <v>482005</v>
@@ -602,8 +690,8 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
+      <c r="G4" s="1">
+        <v>44806</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -632,24 +720,374 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1212121212</v>
+        <v>8923849283</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
+      <c r="G5" s="1">
+        <v>44805</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
       </c>
       <c r="L5">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2342342342</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44562</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2342342344</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44897</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2312121111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44806</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>9893894349</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>8898234234</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44805</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4545454555</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44449</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>6767667677</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44450</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>7676767676</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44538</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>6766666666</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3434534553</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15">
         <v>410101</v>
       </c>
     </row>

--- a/uploadDonorDataToCloud/bloodDonorList.xlsx
+++ b/uploadDonorDataToCloud/bloodDonorList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>city</t>
   </si>
@@ -74,9 +74,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>dateOfDonation</t>
-  </si>
-  <si>
     <t>availableForDonation</t>
   </si>
   <si>
@@ -224,13 +221,31 @@
     <t>UP</t>
   </si>
   <si>
-    <t>15/12/2021</t>
-  </si>
-  <si>
-    <t>19/12/2021</t>
-  </si>
-  <si>
-    <t>15/1/2022</t>
+    <t>dateOfDonation: DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>13/12/2021</t>
+  </si>
+  <si>
+    <t>19/11/2021</t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t>13/08/2021</t>
+  </si>
+  <si>
+    <t>13/07/2021</t>
+  </si>
+  <si>
+    <t>13/1/2022</t>
+  </si>
+  <si>
+    <t>13/2/2022</t>
   </si>
 </sst>
 </file>
@@ -266,9 +281,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,21 +565,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="4" max="5" width="12.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -583,13 +600,13 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
@@ -597,16 +614,13 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>27</v>
@@ -618,30 +632,30 @@
         <v>9898989898</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>44807</v>
+        <v>44907</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
         <v>482005</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>26</v>
@@ -653,30 +667,30 @@
         <v>1919191919</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
-        <v>44564</v>
+        <v>44595</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3">
+        <v>63</v>
+      </c>
+      <c r="K3">
         <v>482005</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>27</v>
@@ -688,30 +702,30 @@
         <v>8787878787</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1">
-        <v>44806</v>
+        <v>44866</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4">
+      <c r="K4">
         <v>482005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -723,30 +737,30 @@
         <v>8923849283</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44805</v>
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>410101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="L5">
-        <v>410101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -758,30 +772,30 @@
         <v>2342342342</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
-        <v>44562</v>
+        <v>44542</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6">
+        <v>37</v>
+      </c>
+      <c r="K6">
         <v>410101</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>33</v>
@@ -793,30 +807,30 @@
         <v>2342342344</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44897</v>
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7">
+        <v>37</v>
+      </c>
+      <c r="K7">
         <v>410101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -828,30 +842,30 @@
         <v>2312121111</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44806</v>
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="K8">
         <v>410101</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>46</v>
@@ -863,30 +877,30 @@
         <v>9893894349</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9">
+        <v>37</v>
+      </c>
+      <c r="K9">
         <v>410101</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -898,30 +912,30 @@
         <v>8898234234</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1">
-        <v>44805</v>
+        <v>44236</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10">
+        <v>37</v>
+      </c>
+      <c r="K10">
         <v>410101</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>38</v>
@@ -933,30 +947,30 @@
         <v>4545454555</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1">
-        <v>44449</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11">
+        <v>37</v>
+      </c>
+      <c r="K11">
         <v>410101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>33</v>
@@ -968,30 +982,30 @@
         <v>6767667677</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1">
-        <v>44450</v>
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12">
+        <v>37</v>
+      </c>
+      <c r="K12">
         <v>410101</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>34</v>
@@ -1003,30 +1017,30 @@
         <v>7676767676</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44538</v>
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13">
+        <v>37</v>
+      </c>
+      <c r="K13">
         <v>410101</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -1038,30 +1052,30 @@
         <v>6766666666</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14">
+        <v>63</v>
+      </c>
+      <c r="K14">
         <v>410101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>24</v>
@@ -1073,30 +1087,738 @@
         <v>3434534553</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15">
+        <v>63</v>
+      </c>
+      <c r="K15">
         <v>410101</v>
       </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G251" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>bloodGroup!$A$2:$A$9</xm:f>
@@ -1108,12 +1830,6 @@
             <xm:f>gender!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F251</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>availableForDonation!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H251</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1146,27 +1862,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -1176,7 +1892,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1201,17 +1917,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1234,17 +1950,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
